--- a/backend/common/primary_data/观塘区升学数据.xlsx
+++ b/backend/common/primary_data/观塘区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15740" firstSheet="4" activeTab="4"/>
+    <workbookView windowHeight="16080" firstSheet="25" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="浸信宣道會呂明才小學" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="257">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -685,6 +685,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>衞</t>
     </r>
     <r>
@@ -1470,6 +1476,142 @@
   </si>
   <si>
     <t>天水圍循道衛理中學</t>
+  </si>
+  <si>
+    <t>聖若瑟書院</t>
+  </si>
+  <si>
+    <t>九龍華仁書院</t>
+  </si>
+  <si>
+    <t>順德聯誼總會李兆基中學</t>
+  </si>
+  <si>
+    <r>
+      <t>匯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>東</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>九</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>優</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>才(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>殷有娣)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <t>聖士提反書院</t>
+  </si>
+  <si>
+    <t>啟思中學</t>
+  </si>
+  <si>
+    <t>香港浸會大學附屬學校王錦輝中學</t>
   </si>
   <si>
     <r>
@@ -2238,7 +2380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2253,6 +2395,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2852,205 +3009,205 @@
       <c r="B2">
         <v>2025</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="23">
         <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="24">
         <v>114</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:4">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:4">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D26">
@@ -3349,7 +3506,7 @@
     </row>
     <row r="59" customHeight="1" spans="2:4">
       <c r="B59" s="4"/>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D59" s="3">
@@ -3421,7 +3578,7 @@
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" s="4"/>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D67" s="3">
@@ -4610,7 +4767,7 @@
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="4"/>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="11" t="s">
         <v>192</v>
       </c>
       <c r="D53" s="3">
@@ -4907,7 +5064,7 @@
     </row>
     <row r="17" ht="17.6" spans="2:4">
       <c r="B17" s="4"/>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="3">
@@ -5348,7 +5505,7 @@
     </row>
     <row r="32" ht="17.6" spans="2:4">
       <c r="B32" s="4"/>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="3">
@@ -6207,7 +6364,7 @@
       <c r="B2" s="2">
         <v>2025</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>210</v>
       </c>
       <c r="D2" s="3">
@@ -6492,7 +6649,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="4"/>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D33" s="3">
@@ -7061,7 +7218,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4"/>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="11" t="s">
         <v>214</v>
       </c>
       <c r="D22" s="3">
@@ -7088,7 +7245,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4"/>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D25" s="3">
@@ -7555,16 +7712,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -7575,16 +7732,16 @@
       <c r="A2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="13">
         <v>2025</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>222</v>
       </c>
       <c r="F2" s="1">
@@ -7593,364 +7750,364 @@
     </row>
     <row r="3" ht="15.2" spans="1:6">
       <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="14">
         <v>2</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" ht="15.2" spans="1:6">
       <c r="B4" s="1"/>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" ht="15.2" spans="1:6">
       <c r="B5" s="1"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10"/>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" ht="15.2" spans="1:6">
       <c r="B6" s="1"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" ht="15.2" spans="1:6">
       <c r="B7" s="1"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10"/>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" ht="15.2" spans="1:6">
       <c r="B8" s="1"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" ht="16.8" spans="1:6">
       <c r="B9" s="1"/>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" ht="15.2" spans="1:6">
       <c r="B10" s="1"/>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10"/>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" ht="15.2" spans="1:6">
       <c r="B11" s="1"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="14">
         <v>4</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" ht="15.2" spans="1:6">
       <c r="B12" s="1"/>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10"/>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" ht="15.2" spans="1:6">
       <c r="B13" s="1"/>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10"/>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" ht="15.2" spans="1:6">
       <c r="B14" s="1"/>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10"/>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" ht="15.2" spans="1:6">
       <c r="B15" s="1"/>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="14">
         <v>7</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" ht="15.2" spans="1:6">
       <c r="B16" s="1"/>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="14">
         <v>4</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" ht="15.2" spans="2:6">
       <c r="B17" s="1"/>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="14">
         <v>3</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" ht="15.2" spans="2:6">
       <c r="B18" s="1"/>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="14">
         <v>3</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" ht="15.2" spans="2:6">
       <c r="B19" s="1"/>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" ht="15.2" spans="2:6">
       <c r="B20" s="1"/>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="14">
         <v>6</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" ht="15.2" spans="2:6">
       <c r="B21" s="1"/>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="14">
         <v>8</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" ht="15.2" spans="2:6">
       <c r="B22" s="1"/>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="14">
         <v>2</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" ht="15.2" spans="2:6">
       <c r="B23" s="1"/>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="14">
         <v>4</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="15.2" spans="2:6">
       <c r="B24" s="1"/>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10"/>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="15.2" spans="2:6">
       <c r="B25" s="1"/>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="14">
         <v>8</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" ht="15.2" spans="2:6">
       <c r="B26" s="1"/>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10"/>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" ht="15.2" spans="2:6">
       <c r="B27" s="1"/>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="14">
         <v>2</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" ht="15.2" spans="2:6">
       <c r="B28" s="1"/>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="14">
         <v>3</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" ht="15.2" spans="2:6">
       <c r="B29" s="1"/>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="14">
         <v>4</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" ht="15.2" spans="2:6">
       <c r="B30" s="1"/>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="9">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10"/>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" ht="15.2" spans="2:6">
       <c r="B31" s="1"/>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="14">
         <v>6</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" ht="15.2" spans="2:6">
       <c r="B32" s="1"/>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="14">
         <v>2</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" ht="15.2" spans="2:6">
       <c r="B33" s="1"/>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="14">
         <v>3</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" ht="15.2" spans="2:6">
-      <c r="B34" s="7"/>
-      <c r="C34" s="14" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="20">
         <v>3</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" ht="15.2" spans="2:6">
-      <c r="B35" s="8">
+      <c r="B35" s="13">
         <v>2024</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="14">
         <v>2</v>
       </c>
       <c r="E35" s="1"/>
@@ -7960,10 +8117,10 @@
     </row>
     <row r="36" ht="15.2" spans="2:6">
       <c r="B36" s="1"/>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="14">
         <v>1</v>
       </c>
       <c r="E36" s="1"/>
@@ -7971,10 +8128,10 @@
     </row>
     <row r="37" ht="15.2" spans="2:6">
       <c r="B37" s="1"/>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="14">
         <v>1</v>
       </c>
       <c r="E37" s="1"/>
@@ -7982,10 +8139,10 @@
     </row>
     <row r="38" ht="15.2" spans="2:6">
       <c r="B38" s="1"/>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="14">
         <v>2</v>
       </c>
       <c r="E38" s="1"/>
@@ -7993,10 +8150,10 @@
     </row>
     <row r="39" ht="15.2" spans="2:6">
       <c r="B39" s="1"/>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="14">
         <v>2</v>
       </c>
       <c r="E39" s="1"/>
@@ -8004,10 +8161,10 @@
     </row>
     <row r="40" ht="15.2" spans="2:6">
       <c r="B40" s="1"/>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="14">
         <v>1</v>
       </c>
       <c r="E40" s="1"/>
@@ -8015,10 +8172,10 @@
     </row>
     <row r="41" ht="15.2" spans="2:6">
       <c r="B41" s="1"/>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="14">
         <v>1</v>
       </c>
       <c r="E41" s="1"/>
@@ -8026,10 +8183,10 @@
     </row>
     <row r="42" ht="15.2" spans="2:6">
       <c r="B42" s="1"/>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="14">
         <v>1</v>
       </c>
       <c r="E42" s="1"/>
@@ -8037,10 +8194,10 @@
     </row>
     <row r="43" ht="15.2" spans="2:6">
       <c r="B43" s="1"/>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="14">
         <v>2</v>
       </c>
       <c r="E43" s="1"/>
@@ -8048,10 +8205,10 @@
     </row>
     <row r="44" ht="15.2" spans="2:6">
       <c r="B44" s="1"/>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="14">
         <v>3</v>
       </c>
       <c r="E44" s="1"/>
@@ -8059,10 +8216,10 @@
     </row>
     <row r="45" ht="15.2" spans="2:6">
       <c r="B45" s="1"/>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="14">
         <v>1</v>
       </c>
       <c r="E45" s="1"/>
@@ -8070,10 +8227,10 @@
     </row>
     <row r="46" ht="15.2" spans="2:6">
       <c r="B46" s="1"/>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="14">
         <v>1</v>
       </c>
       <c r="E46" s="1"/>
@@ -8081,10 +8238,10 @@
     </row>
     <row r="47" ht="15.2" spans="2:6">
       <c r="B47" s="1"/>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="14">
         <v>2</v>
       </c>
       <c r="E47" s="1"/>
@@ -8092,10 +8249,10 @@
     </row>
     <row r="48" ht="15.2" spans="2:6">
       <c r="B48" s="1"/>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="14">
         <v>1</v>
       </c>
       <c r="E48" s="1"/>
@@ -8103,10 +8260,10 @@
     </row>
     <row r="49" ht="15.2" spans="2:6">
       <c r="B49" s="1"/>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="14">
         <v>1</v>
       </c>
       <c r="E49" s="1"/>
@@ -8114,10 +8271,10 @@
     </row>
     <row r="50" ht="15.2" spans="2:6">
       <c r="B50" s="1"/>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="14">
         <v>2</v>
       </c>
       <c r="E50" s="1"/>
@@ -8125,10 +8282,10 @@
     </row>
     <row r="51" ht="15.2" spans="2:6">
       <c r="B51" s="1"/>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="14">
         <v>2</v>
       </c>
       <c r="E51" s="1"/>
@@ -8136,10 +8293,10 @@
     </row>
     <row r="52" ht="15.2" spans="2:6">
       <c r="B52" s="1"/>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="14">
         <v>1</v>
       </c>
       <c r="E52" s="1"/>
@@ -8147,10 +8304,10 @@
     </row>
     <row r="53" ht="15.2" spans="2:6">
       <c r="B53" s="1"/>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="14">
         <v>5</v>
       </c>
       <c r="E53" s="1"/>
@@ -8158,10 +8315,10 @@
     </row>
     <row r="54" ht="15.2" spans="2:6">
       <c r="B54" s="1"/>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="14">
         <v>7</v>
       </c>
       <c r="E54" s="1"/>
@@ -8169,10 +8326,10 @@
     </row>
     <row r="55" ht="15.2" spans="2:6">
       <c r="B55" s="1"/>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="14">
         <v>9</v>
       </c>
       <c r="E55" s="1"/>
@@ -8180,10 +8337,10 @@
     </row>
     <row r="56" ht="15.2" spans="2:6">
       <c r="B56" s="1"/>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="14">
         <v>2</v>
       </c>
       <c r="E56" s="1"/>
@@ -8191,10 +8348,10 @@
     </row>
     <row r="57" ht="15.2" spans="2:6">
       <c r="B57" s="1"/>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="14">
         <v>2</v>
       </c>
       <c r="E57" s="1"/>
@@ -8202,10 +8359,10 @@
     </row>
     <row r="58" ht="15.2" spans="2:6">
       <c r="B58" s="1"/>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="14">
         <v>1</v>
       </c>
       <c r="E58" s="1"/>
@@ -8213,10 +8370,10 @@
     </row>
     <row r="59" ht="15.2" spans="2:6">
       <c r="B59" s="1"/>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="14">
         <v>3</v>
       </c>
       <c r="E59" s="1"/>
@@ -8224,10 +8381,10 @@
     </row>
     <row r="60" ht="15.2" spans="2:6">
       <c r="B60" s="1"/>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="14">
         <v>3</v>
       </c>
       <c r="E60" s="1"/>
@@ -8235,10 +8392,10 @@
     </row>
     <row r="61" ht="15.2" spans="2:6">
       <c r="B61" s="1"/>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="14">
         <v>7</v>
       </c>
       <c r="E61" s="1"/>
@@ -8246,10 +8403,10 @@
     </row>
     <row r="62" ht="15.2" spans="2:6">
       <c r="B62" s="1"/>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="14">
         <v>4</v>
       </c>
       <c r="E62" s="1"/>
@@ -8257,10 +8414,10 @@
     </row>
     <row r="63" ht="15.2" spans="2:6">
       <c r="B63" s="1"/>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="14">
         <v>5</v>
       </c>
       <c r="E63" s="1"/>
@@ -8268,10 +8425,10 @@
     </row>
     <row r="64" ht="15.2" spans="2:6">
       <c r="B64" s="1"/>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="14">
         <v>3</v>
       </c>
       <c r="E64" s="1"/>
@@ -8279,10 +8436,10 @@
     </row>
     <row r="65" ht="15.2" spans="2:6">
       <c r="B65" s="1"/>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="14">
         <v>1</v>
       </c>
       <c r="E65" s="1"/>
@@ -8290,10 +8447,10 @@
     </row>
     <row r="66" ht="15.2" spans="2:6">
       <c r="B66" s="1"/>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="14">
         <v>2</v>
       </c>
       <c r="E66" s="1"/>
@@ -8301,10 +8458,10 @@
     </row>
     <row r="67" ht="15.2" spans="2:6">
       <c r="B67" s="1"/>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="14">
         <v>1</v>
       </c>
       <c r="E67" s="1"/>
@@ -8312,10 +8469,10 @@
     </row>
     <row r="68" ht="15.2" spans="2:6">
       <c r="B68" s="1"/>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="14">
         <v>3</v>
       </c>
       <c r="E68" s="1"/>
@@ -8903,7 +9060,7 @@
     </row>
     <row r="3" ht="17.6" spans="1:6">
       <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>210</v>
       </c>
       <c r="D3" s="3">
@@ -9146,7 +9303,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4"/>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D30" s="3">
@@ -10032,7 +10189,7 @@
       <c r="A2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="10">
         <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -10137,13 +10294,17 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="聖若瑟英文小學"/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="22.65625" customWidth="1"/>
+    <col min="3" max="3" width="26.5625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
       <c r="A1" t="s">
@@ -10165,7 +10326,282 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="B11" s="5"/>
+      <c r="C11" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="B12" s="5"/>
+      <c r="C12" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:3">
+      <c r="B20" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:3">
+      <c r="B22" s="9"/>
+      <c r="C22" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:3">
+      <c r="B28" s="9"/>
+      <c r="C28" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:3">
+      <c r="B29" s="9"/>
+      <c r="C29" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:3">
+      <c r="B30" s="9"/>
+      <c r="C30" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:3">
+      <c r="B31" s="9"/>
+      <c r="C31" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:3">
+      <c r="B32" s="9"/>
+      <c r="C32" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:3">
+      <c r="B33" s="9"/>
+      <c r="C33" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:3">
+      <c r="B34" s="9"/>
+      <c r="C34" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:3">
+      <c r="B35" s="9"/>
+      <c r="C35" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:3">
+      <c r="B36" s="9"/>
+      <c r="C36" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:3">
+      <c r="B37" s="9"/>
+      <c r="C37" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:3">
+      <c r="B38" s="9"/>
+      <c r="C38" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:3">
+      <c r="B39" s="9"/>
+      <c r="C39" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:3">
+      <c r="B40" s="9"/>
+      <c r="C40" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:3">
+      <c r="B41" s="9"/>
+      <c r="C41" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:3">
+      <c r="B42" s="9"/>
+      <c r="C42" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:3">
+      <c r="B43" s="9"/>
+      <c r="C43" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:3">
+      <c r="B44" s="9"/>
+      <c r="C44" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:3">
+      <c r="B45" s="9"/>
+      <c r="C45" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B20:B45"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -10218,7 +10654,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -10245,7 +10681,7 @@
     <row r="6" ht="17.6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -10717,7 +11153,7 @@
   <sheetPr codeName="基督教聖約教會堅樂小學"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -10759,7 +11195,7 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="22" t="s">
         <v>113</v>
       </c>
     </row>
@@ -10855,7 +11291,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="4"/>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="3">
@@ -10918,7 +11354,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="4"/>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D20" s="3">
@@ -10936,7 +11372,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4"/>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D22" s="3">
@@ -11852,7 +12288,7 @@
     </row>
     <row r="38" ht="17.6" spans="2:4">
       <c r="B38" s="4"/>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="3">
